--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Holzknacker.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Holzknacker.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
   <si>
     <t>firstName</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Hövelborn</t>
   </si>
   <si>
+    <t>onlySingle</t>
+  </si>
+  <si>
     <t>Wilhelm</t>
   </si>
   <si>
@@ -127,7 +130,46 @@
     <t>Zabel</t>
   </si>
   <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Luig</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kohaupt</t>
+  </si>
+  <si>
+    <t>Karsten</t>
+  </si>
+  <si>
+    <t>Steinkamp</t>
+  </si>
+  <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Reimann</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Schwitzkowski</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Haarmann</t>
   </si>
 </sst>
 </file>
@@ -191,11 +233,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -249,26 +291,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H2" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I2" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="3">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="3">
@@ -285,26 +327,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I3" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="3">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="4">
@@ -321,26 +363,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I4" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="5">
@@ -357,26 +399,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I5" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="3">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="3">
@@ -444,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="3">
@@ -480,7 +522,7 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="3">
@@ -516,7 +558,7 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="3">
@@ -537,26 +579,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H10" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I10" s="4">
         <v>0.0</v>
       </c>
       <c r="J10" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="11">
@@ -573,26 +615,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G11" s="4">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H11" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I11" s="4">
         <v>0.0</v>
       </c>
       <c r="J11" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="12">
@@ -624,7 +666,7 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3">
@@ -660,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3">
@@ -681,26 +723,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G14" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H14" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I14" s="4">
         <v>0.0</v>
       </c>
       <c r="J14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="15">
@@ -717,26 +759,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G15" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H15" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I15" s="4">
         <v>0.0</v>
       </c>
       <c r="J15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="3">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="16">
@@ -753,26 +795,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H16" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I16" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J16" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="3">
-        <v>0.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="17">
@@ -789,26 +831,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H17" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I17" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="3">
-        <v>0.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="18">
@@ -825,26 +867,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="4">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H18" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I18" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="3">
-        <v>0.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="19">
@@ -861,26 +903,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F19" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H19" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I19" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3">
-        <v>0.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="20">
@@ -897,26 +939,26 @@
         <v>12</v>
       </c>
       <c r="E20" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F20" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G20" s="4">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H20" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I20" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="21">
@@ -933,26 +975,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F21" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G21" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H21" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I21" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3">
-        <v>0.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="22">
@@ -984,7 +1026,7 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3">
@@ -1020,7 +1062,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="3">
@@ -1056,7 +1098,7 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3">
@@ -1092,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3">
@@ -1128,7 +1170,7 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3">
@@ -1164,7 +1206,7 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3">
@@ -1185,26 +1227,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="4">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F28" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G28" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H28" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I28" s="4">
         <v>0.0</v>
       </c>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="29">
@@ -1221,26 +1263,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F29" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G29" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H29" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I29" s="4">
         <v>0.0</v>
       </c>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="30">
@@ -1254,29 +1296,29 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F30" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G30" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H30" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I30" s="4">
         <v>0.0</v>
       </c>
       <c r="J30" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="31">
@@ -1308,7 +1350,7 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="3">
@@ -1329,26 +1371,26 @@
         <v>12</v>
       </c>
       <c r="E32" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F32" s="4">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G32" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H32" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I32" s="4">
         <v>0.0</v>
       </c>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="3">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="33">
@@ -1380,7 +1422,7 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="3">
@@ -1389,10 +1431,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4">
         <v>1.0</v>
@@ -1401,34 +1443,34 @@
         <v>12</v>
       </c>
       <c r="E34" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F34" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G34" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H34" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I34" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J34" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="3">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4">
         <v>2.0</v>
@@ -1437,34 +1479,34 @@
         <v>12</v>
       </c>
       <c r="E35" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F35" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G35" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H35" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I35" s="4">
         <v>0.0</v>
       </c>
       <c r="J35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="3">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4">
         <v>3.0</v>
@@ -1473,34 +1515,34 @@
         <v>12</v>
       </c>
       <c r="E36" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F36" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G36" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H36" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I36" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="3">
-        <v>0.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" s="4">
         <v>4.0</v>
@@ -1509,34 +1551,34 @@
         <v>12</v>
       </c>
       <c r="E37" s="4">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F37" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G37" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I37" s="4">
         <v>0.0</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="3">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4">
         <v>1.0</v>
@@ -1560,7 +1602,7 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="3">
@@ -1569,10 +1611,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4">
         <v>2.0</v>
@@ -1596,7 +1638,7 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="3">
@@ -1605,10 +1647,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4">
         <v>3.0</v>
@@ -1632,7 +1674,7 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="3">
@@ -1641,10 +1683,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4">
         <v>4.0</v>
@@ -1668,7 +1710,7 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="3">
@@ -1677,10 +1719,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4">
         <v>1.0</v>
@@ -1689,34 +1731,34 @@
         <v>12</v>
       </c>
       <c r="E42" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F42" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G42" s="4">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H42" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I42" s="4">
         <v>0.0</v>
       </c>
       <c r="J42" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="4">
         <v>2.0</v>
@@ -1725,34 +1767,34 @@
         <v>12</v>
       </c>
       <c r="E43" s="4">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F43" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G43" s="4">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H43" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I43" s="4">
         <v>0.0</v>
       </c>
       <c r="J43" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4">
         <v>3.0</v>
@@ -1761,34 +1803,34 @@
         <v>12</v>
       </c>
       <c r="E44" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F44" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G44" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H44" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I44" s="4">
         <v>0.0</v>
       </c>
       <c r="J44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4">
         <v>4.0</v>
@@ -1797,34 +1839,34 @@
         <v>12</v>
       </c>
       <c r="E45" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F45" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G45" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H45" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J45" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4">
         <v>1.0</v>
@@ -1848,7 +1890,7 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="3">
@@ -1857,10 +1899,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4">
         <v>2.0</v>
@@ -1869,34 +1911,34 @@
         <v>12</v>
       </c>
       <c r="E47" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F47" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G47" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H47" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I47" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="3">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4">
         <v>3.0</v>
@@ -1905,34 +1947,34 @@
         <v>12</v>
       </c>
       <c r="E48" s="4">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" s="4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G48" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H48" s="4">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I48" s="4">
         <v>0.0</v>
       </c>
       <c r="J48" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" s="4">
         <v>4.0</v>
@@ -1941,34 +1983,34 @@
         <v>12</v>
       </c>
       <c r="E49" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="F49" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G49" s="4">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H49" s="4">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I49" s="4">
         <v>0.0</v>
       </c>
       <c r="J49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="3">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4">
         <v>1.0</v>
@@ -1977,34 +2019,34 @@
         <v>12</v>
       </c>
       <c r="E50" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F50" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G50" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H50" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I50" s="4">
         <v>0.0</v>
       </c>
       <c r="J50" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="3">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" s="4">
         <v>2.0</v>
@@ -2013,34 +2055,34 @@
         <v>12</v>
       </c>
       <c r="E51" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F51" s="4">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G51" s="4">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H51" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I51" s="4">
         <v>0.0</v>
       </c>
       <c r="J51" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="3">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="4">
         <v>3.0</v>
@@ -2064,7 +2106,7 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="3">
@@ -2073,10 +2115,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" s="4">
         <v>4.0</v>
@@ -2100,7 +2142,7 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="3">
@@ -2109,10 +2151,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="4">
         <v>1.0</v>
@@ -2121,34 +2163,34 @@
         <v>12</v>
       </c>
       <c r="E54" s="4">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F54" s="4">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G54" s="4">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H54" s="4">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I54" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J54" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55" s="4">
         <v>2.0</v>
@@ -2157,34 +2199,34 @@
         <v>12</v>
       </c>
       <c r="E55" s="4">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F55" s="4">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G55" s="4">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H55" s="4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I55" s="4">
         <v>0.0</v>
       </c>
       <c r="J55" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56" s="4">
         <v>3.0</v>
@@ -2208,7 +2250,7 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="3">
@@ -2217,10 +2259,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="4">
         <v>4.0</v>
@@ -2244,7 +2286,7 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="3">
@@ -2253,10 +2295,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="3">
         <v>1.0</v>
@@ -2265,33 +2307,33 @@
         <v>12</v>
       </c>
       <c r="E58" s="3">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="F58" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G58" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H58" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I58" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J58" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="3">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="3">
         <v>2.0</v>
@@ -2300,33 +2342,33 @@
         <v>12</v>
       </c>
       <c r="E59" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F59" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G59" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H59" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I59" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J59" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="3">
         <v>3.0</v>
@@ -2335,33 +2377,33 @@
         <v>12</v>
       </c>
       <c r="E60" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F60" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G60" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H60" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I60" s="3">
         <v>0.0</v>
       </c>
       <c r="J60" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" s="3">
         <v>4.0</v>
@@ -2370,25 +2412,25 @@
         <v>12</v>
       </c>
       <c r="E61" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F61" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G61" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H61" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I61" s="3">
         <v>0.0</v>
       </c>
       <c r="J61" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="62">
@@ -2396,7 +2438,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="3">
         <v>1.0</v>
@@ -2420,7 +2462,7 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="3">
         <v>0.0</v>
@@ -2431,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="3">
         <v>2.0</v>
@@ -2455,7 +2497,7 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="3">
         <v>0.0</v>
@@ -2466,7 +2508,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" s="3">
         <v>3.0</v>
@@ -2490,7 +2532,7 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="3">
         <v>0.0</v>
@@ -2501,7 +2543,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" s="3">
         <v>4.0</v>
@@ -2525,242 +2567,255 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C66" s="3">
         <v>1.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E66" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F66" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G66" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H66" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I66" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J66" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="3">
-        <v>0.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C67" s="3">
         <v>1.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E67" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F67" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G67" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H67" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I67" s="3">
         <v>0.0</v>
       </c>
       <c r="J67" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="3">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C68" s="3">
         <v>2.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E68" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F68" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G68" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H68" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I68" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J68" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="3">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C69" s="3">
         <v>2.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E69" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F69" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G69" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H69" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I69" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C70" s="3">
         <v>3.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E70" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F70" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G70" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H70" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I70" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J70" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="3">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C71" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E71" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F71" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G71" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H71" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I71" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J71" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="3">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C72" s="3">
         <v>4.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E72" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F72" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G72" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H72" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I72" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J72" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
     </row>
   </sheetData>
